--- a/biology/Botanique/Cladophora_pellucida/Cladophora_pellucida.xlsx
+++ b/biology/Botanique/Cladophora_pellucida/Cladophora_pellucida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladophora pellucida est une espèce d'algues vertes de la famille des Cladophoraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette algue est constituée de filaments ramifiés, dont la couleur vert clair est souvent masquée par la présence de nombreuses algues rouges microscopiques, épiphytes et/ou endophytes. La cellule basale d'une ramification est de très grande dimension, jusqu'à 1 cm de hauteur, voire 2 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette algue est constituée de filaments ramifiés, dont la couleur vert clair est souvent masquée par la présence de nombreuses algues rouges microscopiques, épiphytes et/ou endophytes. La cellule basale d'une ramification est de très grande dimension, jusqu'à 1 cm de hauteur, voire 2 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette algue vit généralement dans l'étage infralittoral, dans le bas de la zone battue par les vagues[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette algue vit généralement dans l'étage infralittoral, dans le bas de la zone battue par les vagues.
 </t>
         </is>
       </c>
@@ -575,9 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-Étymologie
-Le terme « cladophora » signifie « porteur de rameaux » en grec ancien et fait allusion aux ramifications des filaments ; quant au terme « pellucida », il signifie « diaphane » en latin[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « cladophora » signifie « porteur de rameaux » en grec ancien et fait allusion aux ramifications des filaments ; quant au terme « pellucida », il signifie « diaphane » en latin.
 </t>
         </is>
       </c>
